--- a/service/src/infra/web/static/uploads/cruises2.xlsx
+++ b/service/src/infra/web/static/uploads/cruises2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jose Cuevas\DEV\CRS\back\service\src\infra\web\static\uploads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53FE8D09-E722-4F18-8AC0-BE7FFCC44986}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8111A3A1-A278-4B89-ACD6-35F06BCB07F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="38640" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="cruise" sheetId="1" r:id="rId1"/>
@@ -1106,9 +1106,6 @@
     </r>
   </si>
   <si>
-    <t>Land iguanas, Galapagos sea lion, Blue-footed boobies, Waved Albatros, Nazca boobies, Marine iguanas, Galapagos hawk, Santa Fe land iguana, Giant tortoises, Land iguanas</t>
-  </si>
-  <si>
     <t>Jueves - Domingo 4D3N C</t>
   </si>
   <si>
@@ -5790,6 +5787,9 @@
   </si>
   <si>
     <t>https//galapagospetrel.com/</t>
+  </si>
+  <si>
+    <t>Land iguanas, Galapagos sea lion, Blue-footed boobies, Waved Albatros, Nazca boobies, Marine iguanas, Galapagos hawk, Santa Fe land iguanas, Giant tortoises, Land iguanas</t>
   </si>
 </sst>
 </file>
@@ -6128,7 +6128,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:X1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="1" topLeftCell="X2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -6259,7 +6259,7 @@
         <v>17</v>
       </c>
       <c r="L2" s="6" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="M2" s="4">
         <v>1</v>
@@ -6276,13 +6276,13 @@
       <c r="T2" s="4"/>
       <c r="U2" s="4"/>
       <c r="V2" s="7" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="W2" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X2" s="8" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -6320,7 +6320,7 @@
         <v>17</v>
       </c>
       <c r="L3" s="6" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="M3" s="4">
         <v>1</v>
@@ -6339,13 +6339,13 @@
       <c r="T3" s="4"/>
       <c r="U3" s="4"/>
       <c r="V3" s="7" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="W3" s="6" t="s">
         <v>32</v>
       </c>
       <c r="X3" s="8" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -6400,13 +6400,13 @@
       <c r="T4" s="4"/>
       <c r="U4" s="4"/>
       <c r="V4" s="9" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="W4" s="6" t="s">
         <v>45</v>
       </c>
       <c r="X4" s="8" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -6461,13 +6461,13 @@
       <c r="T5" s="4"/>
       <c r="U5" s="4"/>
       <c r="V5" s="9" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="W5" s="6" t="s">
         <v>51</v>
       </c>
       <c r="X5" s="8" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -6522,13 +6522,13 @@
       <c r="T6" s="4"/>
       <c r="U6" s="4"/>
       <c r="V6" s="9" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="W6" s="6" t="s">
         <v>45</v>
       </c>
       <c r="X6" s="8" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -6585,13 +6585,13 @@
       <c r="T7" s="4"/>
       <c r="U7" s="4"/>
       <c r="V7" s="9" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="W7" s="6" t="s">
         <v>63</v>
       </c>
       <c r="X7" s="8" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -6608,7 +6608,7 @@
         <v>25</v>
       </c>
       <c r="E8" s="6" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="F8" s="6" t="s">
         <v>65</v>
@@ -6644,13 +6644,13 @@
       <c r="T8" s="4"/>
       <c r="U8" s="4"/>
       <c r="V8" s="9" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="W8" s="6" t="s">
         <v>63</v>
       </c>
       <c r="X8" s="8" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -6686,7 +6686,7 @@
         <v>16</v>
       </c>
       <c r="L9" s="6" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="M9" s="4">
         <v>1</v>
@@ -6703,7 +6703,7 @@
       <c r="T9" s="4"/>
       <c r="U9" s="4"/>
       <c r="V9" s="7" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="W9" s="6" t="s">
         <v>72</v>
@@ -15933,7 +15933,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:T230"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
+      <selection activeCell="V18" sqref="V18"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15" customHeight="1"/>
   <cols>
@@ -16123,7 +16125,7 @@
       <c r="R3" s="7"/>
       <c r="S3" s="7"/>
       <c r="T3" s="17" t="s">
-        <v>227</v>
+        <v>512</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -16131,7 +16133,7 @@
         <v>1</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="5">
         <v>4</v>
@@ -16153,19 +16155,19 @@
       <c r="N4" s="7"/>
       <c r="O4" s="7"/>
       <c r="P4" s="16" t="s">
+        <v>228</v>
+      </c>
+      <c r="Q4" s="16" t="s">
         <v>229</v>
       </c>
-      <c r="Q4" s="16" t="s">
+      <c r="R4" s="16" t="s">
         <v>230</v>
       </c>
-      <c r="R4" s="16" t="s">
+      <c r="S4" s="16" t="s">
         <v>231</v>
       </c>
-      <c r="S4" s="16" t="s">
+      <c r="T4" s="17" t="s">
         <v>232</v>
-      </c>
-      <c r="T4" s="17" t="s">
-        <v>233</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -16173,16 +16175,16 @@
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="5">
         <v>4</v>
       </c>
       <c r="D5" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="E5" s="5" t="s">
         <v>235</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>236</v>
       </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
@@ -16190,16 +16192,16 @@
       <c r="I5" s="7"/>
       <c r="J5" s="7"/>
       <c r="K5" s="16" t="s">
+        <v>236</v>
+      </c>
+      <c r="L5" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="L5" s="16" t="s">
+      <c r="M5" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="M5" s="16" t="s">
+      <c r="N5" s="16" t="s">
         <v>239</v>
-      </c>
-      <c r="N5" s="16" t="s">
-        <v>240</v>
       </c>
       <c r="O5" s="7"/>
       <c r="P5" s="7"/>
@@ -16207,7 +16209,7 @@
       <c r="R5" s="7"/>
       <c r="S5" s="7"/>
       <c r="T5" s="17" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -16215,16 +16217,16 @@
         <v>2</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C6" s="5">
         <v>5</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -16235,23 +16237,23 @@
       <c r="L6" s="7"/>
       <c r="M6" s="7"/>
       <c r="N6" s="16" t="s">
+        <v>242</v>
+      </c>
+      <c r="O6" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="O6" s="16" t="s">
+      <c r="P6" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="P6" s="16" t="s">
+      <c r="Q6" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="Q6" s="16" t="s">
+      <c r="R6" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="R6" s="16" t="s">
-        <v>247</v>
       </c>
       <c r="S6" s="7"/>
       <c r="T6" s="17" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -16259,61 +16261,61 @@
         <v>2</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="C7" s="5">
         <v>8</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F7" s="16" t="s">
+        <v>249</v>
+      </c>
+      <c r="G7" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="G7" s="16" t="s">
+      <c r="H7" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="H7" s="16" t="s">
+      <c r="I7" s="16" t="s">
         <v>252</v>
       </c>
-      <c r="I7" s="16" t="s">
+      <c r="J7" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="J7" s="16" t="s">
+      <c r="K7" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="K7" s="16" t="s">
+      <c r="L7" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="L7" s="16" t="s">
+      <c r="M7" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="M7" s="16" t="s">
+      <c r="N7" s="16" t="s">
         <v>257</v>
       </c>
-      <c r="N7" s="16" t="s">
+      <c r="O7" s="16" t="s">
         <v>258</v>
       </c>
-      <c r="O7" s="16" t="s">
+      <c r="P7" s="16" t="s">
         <v>259</v>
       </c>
-      <c r="P7" s="16" t="s">
+      <c r="Q7" s="16" t="s">
         <v>260</v>
       </c>
-      <c r="Q7" s="16" t="s">
+      <c r="R7" s="16" t="s">
         <v>261</v>
       </c>
-      <c r="R7" s="16" t="s">
+      <c r="S7" s="16" t="s">
         <v>262</v>
       </c>
-      <c r="S7" s="16" t="s">
+      <c r="T7" s="17" t="s">
         <v>263</v>
-      </c>
-      <c r="T7" s="17" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -16321,28 +16323,28 @@
         <v>3</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C8" s="5">
         <v>4</v>
       </c>
       <c r="D8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>265</v>
+      </c>
+      <c r="F8" s="16" t="s">
         <v>266</v>
       </c>
-      <c r="E8" s="5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F8" s="16" t="s">
+      <c r="G8" s="16" t="s">
         <v>267</v>
       </c>
-      <c r="G8" s="16" t="s">
+      <c r="H8" s="16" t="s">
         <v>268</v>
       </c>
-      <c r="H8" s="16" t="s">
+      <c r="I8" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="I8" s="16" t="s">
-        <v>270</v>
       </c>
       <c r="J8" s="7"/>
       <c r="K8" s="7"/>
@@ -16355,7 +16357,7 @@
       <c r="R8" s="7"/>
       <c r="S8" s="7"/>
       <c r="T8" s="17" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -16363,7 +16365,7 @@
         <v>3</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C9" s="5">
         <v>5</v>
@@ -16372,25 +16374,25 @@
         <v>221</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="7"/>
       <c r="I9" s="16" t="s">
+        <v>272</v>
+      </c>
+      <c r="J9" s="16" t="s">
         <v>273</v>
       </c>
-      <c r="J9" s="16" t="s">
+      <c r="K9" s="16" t="s">
         <v>274</v>
       </c>
-      <c r="K9" s="16" t="s">
+      <c r="L9" s="16" t="s">
         <v>275</v>
       </c>
-      <c r="L9" s="16" t="s">
+      <c r="M9" s="7" t="s">
         <v>276</v>
-      </c>
-      <c r="M9" s="7" t="s">
-        <v>277</v>
       </c>
       <c r="N9" s="7"/>
       <c r="O9" s="7"/>
@@ -16399,7 +16401,7 @@
       <c r="R9" s="7"/>
       <c r="S9" s="7"/>
       <c r="T9" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -16407,61 +16409,61 @@
         <v>3</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C10" s="5">
         <v>8</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F10" s="16" t="s">
+        <v>279</v>
+      </c>
+      <c r="G10" s="16" t="s">
         <v>280</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="H10" s="16" t="s">
         <v>281</v>
       </c>
-      <c r="H10" s="16" t="s">
+      <c r="I10" s="16" t="s">
         <v>282</v>
       </c>
-      <c r="I10" s="16" t="s">
+      <c r="J10" s="16" t="s">
         <v>283</v>
       </c>
-      <c r="J10" s="16" t="s">
+      <c r="K10" s="16" t="s">
         <v>284</v>
       </c>
-      <c r="K10" s="16" t="s">
+      <c r="L10" s="16" t="s">
         <v>285</v>
       </c>
-      <c r="L10" s="16" t="s">
+      <c r="M10" s="16" t="s">
         <v>286</v>
       </c>
-      <c r="M10" s="16" t="s">
+      <c r="N10" s="16" t="s">
         <v>287</v>
       </c>
-      <c r="N10" s="16" t="s">
+      <c r="O10" s="16" t="s">
         <v>288</v>
       </c>
-      <c r="O10" s="16" t="s">
+      <c r="P10" s="16" t="s">
         <v>289</v>
       </c>
-      <c r="P10" s="16" t="s">
+      <c r="Q10" s="16" t="s">
         <v>290</v>
       </c>
-      <c r="Q10" s="16" t="s">
+      <c r="R10" s="16" t="s">
         <v>291</v>
       </c>
-      <c r="R10" s="16" t="s">
+      <c r="S10" s="16" t="s">
         <v>292</v>
       </c>
-      <c r="S10" s="16" t="s">
+      <c r="T10" s="17" t="s">
         <v>293</v>
-      </c>
-      <c r="T10" s="17" t="s">
-        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -16469,28 +16471,28 @@
         <v>3</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="C11" s="5">
         <v>4</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>221</v>
       </c>
       <c r="F11" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="G11" s="16" t="s">
         <v>295</v>
       </c>
-      <c r="G11" s="16" t="s">
+      <c r="H11" s="16" t="s">
         <v>296</v>
       </c>
-      <c r="H11" s="16" t="s">
+      <c r="I11" s="16" t="s">
         <v>297</v>
-      </c>
-      <c r="I11" s="16" t="s">
-        <v>298</v>
       </c>
       <c r="J11" s="7"/>
       <c r="K11" s="7"/>
@@ -16503,7 +16505,7 @@
       <c r="R11" s="7"/>
       <c r="S11" s="7"/>
       <c r="T11" s="17" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -16511,7 +16513,7 @@
         <v>3</v>
       </c>
       <c r="B12" s="5" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="C12" s="5">
         <v>5</v>
@@ -16520,25 +16522,25 @@
         <v>221</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="7"/>
       <c r="I12" s="16" t="s">
+        <v>299</v>
+      </c>
+      <c r="J12" s="16" t="s">
         <v>300</v>
       </c>
-      <c r="J12" s="16" t="s">
+      <c r="K12" s="16" t="s">
         <v>301</v>
       </c>
-      <c r="K12" s="16" t="s">
+      <c r="L12" s="16" t="s">
         <v>302</v>
       </c>
-      <c r="L12" s="16" t="s">
+      <c r="M12" s="7" t="s">
         <v>303</v>
-      </c>
-      <c r="M12" s="7" t="s">
-        <v>304</v>
       </c>
       <c r="N12" s="7"/>
       <c r="O12" s="7"/>
@@ -16547,7 +16549,7 @@
       <c r="R12" s="7"/>
       <c r="S12" s="7"/>
       <c r="T12" s="17" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -16555,61 +16557,61 @@
         <v>3</v>
       </c>
       <c r="B13" s="5" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="C13" s="5">
         <v>8</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F13" s="16" t="s">
+        <v>304</v>
+      </c>
+      <c r="G13" s="16" t="s">
         <v>305</v>
       </c>
-      <c r="G13" s="16" t="s">
+      <c r="H13" s="16" t="s">
         <v>306</v>
       </c>
-      <c r="H13" s="16" t="s">
+      <c r="I13" s="16" t="s">
         <v>307</v>
       </c>
-      <c r="I13" s="16" t="s">
+      <c r="J13" s="16" t="s">
         <v>308</v>
       </c>
-      <c r="J13" s="16" t="s">
+      <c r="K13" s="16" t="s">
         <v>309</v>
       </c>
-      <c r="K13" s="16" t="s">
+      <c r="L13" s="16" t="s">
         <v>310</v>
       </c>
-      <c r="L13" s="16" t="s">
+      <c r="M13" s="16" t="s">
         <v>311</v>
       </c>
-      <c r="M13" s="16" t="s">
+      <c r="N13" s="16" t="s">
         <v>312</v>
       </c>
-      <c r="N13" s="16" t="s">
+      <c r="O13" s="16" t="s">
         <v>313</v>
       </c>
-      <c r="O13" s="16" t="s">
+      <c r="P13" s="16" t="s">
         <v>314</v>
       </c>
-      <c r="P13" s="16" t="s">
+      <c r="Q13" s="16" t="s">
         <v>315</v>
       </c>
-      <c r="Q13" s="16" t="s">
+      <c r="R13" s="16" t="s">
         <v>316</v>
       </c>
-      <c r="R13" s="16" t="s">
+      <c r="S13" s="16" t="s">
         <v>317</v>
       </c>
-      <c r="S13" s="16" t="s">
+      <c r="T13" s="17" t="s">
         <v>318</v>
-      </c>
-      <c r="T13" s="17" t="s">
-        <v>319</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -16617,29 +16619,29 @@
         <v>4</v>
       </c>
       <c r="B14" s="5" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="C14" s="5">
         <v>4</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F14" s="7"/>
       <c r="G14" s="16" t="s">
+        <v>321</v>
+      </c>
+      <c r="H14" s="16" t="s">
         <v>322</v>
       </c>
-      <c r="H14" s="16" t="s">
+      <c r="I14" s="16" t="s">
         <v>323</v>
       </c>
-      <c r="I14" s="16" t="s">
+      <c r="J14" s="16" t="s">
         <v>324</v>
-      </c>
-      <c r="J14" s="16" t="s">
-        <v>325</v>
       </c>
       <c r="K14" s="7"/>
       <c r="L14" s="7"/>
@@ -16651,7 +16653,7 @@
       <c r="R14" s="7"/>
       <c r="S14" s="7"/>
       <c r="T14" s="17" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -16659,35 +16661,35 @@
         <v>4</v>
       </c>
       <c r="B15" s="5" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="C15" s="5">
         <v>5</v>
       </c>
       <c r="D15" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
       <c r="J15" s="16" t="s">
+        <v>327</v>
+      </c>
+      <c r="K15" s="16" t="s">
         <v>328</v>
       </c>
-      <c r="K15" s="16" t="s">
+      <c r="L15" s="16" t="s">
         <v>329</v>
       </c>
-      <c r="L15" s="16" t="s">
+      <c r="M15" s="16" t="s">
         <v>330</v>
       </c>
-      <c r="M15" s="16" t="s">
+      <c r="N15" s="7" t="s">
         <v>331</v>
-      </c>
-      <c r="N15" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="O15" s="7"/>
       <c r="P15" s="7"/>
@@ -16695,7 +16697,7 @@
       <c r="R15" s="7"/>
       <c r="S15" s="7"/>
       <c r="T15" s="17" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -16703,61 +16705,61 @@
         <v>4</v>
       </c>
       <c r="B16" s="5" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="C16" s="5">
         <v>8</v>
       </c>
       <c r="D16" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="F16" s="16" t="s">
+        <v>334</v>
+      </c>
+      <c r="G16" s="16" t="s">
         <v>335</v>
       </c>
-      <c r="G16" s="16" t="s">
+      <c r="H16" s="16" t="s">
         <v>336</v>
       </c>
-      <c r="H16" s="16" t="s">
+      <c r="I16" s="16" t="s">
         <v>337</v>
       </c>
-      <c r="I16" s="16" t="s">
+      <c r="J16" s="16" t="s">
         <v>338</v>
       </c>
-      <c r="J16" s="16" t="s">
+      <c r="K16" s="16" t="s">
         <v>339</v>
       </c>
-      <c r="K16" s="16" t="s">
+      <c r="L16" s="16" t="s">
         <v>340</v>
       </c>
-      <c r="L16" s="16" t="s">
+      <c r="M16" s="16" t="s">
         <v>341</v>
       </c>
-      <c r="M16" s="16" t="s">
+      <c r="N16" s="16" t="s">
         <v>342</v>
       </c>
-      <c r="N16" s="16" t="s">
+      <c r="O16" s="16" t="s">
         <v>343</v>
       </c>
-      <c r="O16" s="16" t="s">
+      <c r="P16" s="16" t="s">
         <v>344</v>
       </c>
-      <c r="P16" s="16" t="s">
+      <c r="Q16" s="16" t="s">
         <v>345</v>
       </c>
-      <c r="Q16" s="16" t="s">
+      <c r="R16" s="16" t="s">
         <v>346</v>
       </c>
-      <c r="R16" s="16" t="s">
+      <c r="S16" s="16" t="s">
         <v>347</v>
       </c>
-      <c r="S16" s="16" t="s">
+      <c r="T16" s="17" t="s">
         <v>348</v>
-      </c>
-      <c r="T16" s="17" t="s">
-        <v>349</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -16765,30 +16767,30 @@
         <v>5</v>
       </c>
       <c r="B17" s="5" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="C17" s="5">
         <v>4</v>
       </c>
       <c r="D17" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="I17" s="16" t="s">
         <v>352</v>
       </c>
-      <c r="I17" s="16" t="s">
+      <c r="J17" s="16" t="s">
         <v>353</v>
       </c>
-      <c r="J17" s="16" t="s">
+      <c r="K17" s="16" t="s">
         <v>354</v>
-      </c>
-      <c r="K17" s="16" t="s">
-        <v>355</v>
       </c>
       <c r="L17" s="7"/>
       <c r="M17" s="7"/>
@@ -16799,7 +16801,7 @@
       <c r="R17" s="7"/>
       <c r="S17" s="7"/>
       <c r="T17" s="17" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -16807,25 +16809,25 @@
         <v>5</v>
       </c>
       <c r="B18" s="5" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="C18" s="5">
         <v>5</v>
       </c>
       <c r="D18" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F18" s="16" t="s">
+        <v>357</v>
+      </c>
+      <c r="G18" s="16" t="s">
         <v>358</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="H18" s="16" t="s">
         <v>359</v>
-      </c>
-      <c r="H18" s="16" t="s">
-        <v>360</v>
       </c>
       <c r="I18" s="7"/>
       <c r="J18" s="7"/>
@@ -16837,13 +16839,13 @@
       <c r="P18" s="7"/>
       <c r="Q18" s="7"/>
       <c r="R18" s="16" t="s">
+        <v>360</v>
+      </c>
+      <c r="S18" s="16" t="s">
         <v>361</v>
       </c>
-      <c r="S18" s="16" t="s">
+      <c r="T18" s="17" t="s">
         <v>362</v>
-      </c>
-      <c r="T18" s="17" t="s">
-        <v>363</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -16851,61 +16853,61 @@
         <v>5</v>
       </c>
       <c r="B19" s="5" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="C19" s="5">
         <v>8</v>
       </c>
       <c r="D19" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="E19" s="5" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="F19" s="16" t="s">
+        <v>364</v>
+      </c>
+      <c r="G19" s="16" t="s">
         <v>365</v>
       </c>
-      <c r="G19" s="16" t="s">
+      <c r="H19" s="16" t="s">
         <v>366</v>
       </c>
-      <c r="H19" s="16" t="s">
+      <c r="I19" s="16" t="s">
         <v>367</v>
       </c>
-      <c r="I19" s="16" t="s">
+      <c r="J19" s="16" t="s">
         <v>368</v>
       </c>
-      <c r="J19" s="16" t="s">
+      <c r="K19" s="16" t="s">
         <v>369</v>
       </c>
-      <c r="K19" s="16" t="s">
+      <c r="L19" s="16" t="s">
         <v>370</v>
       </c>
-      <c r="L19" s="16" t="s">
+      <c r="M19" s="16" t="s">
         <v>371</v>
       </c>
-      <c r="M19" s="16" t="s">
+      <c r="N19" s="16" t="s">
         <v>372</v>
       </c>
-      <c r="N19" s="16" t="s">
+      <c r="O19" s="16" t="s">
         <v>373</v>
       </c>
-      <c r="O19" s="16" t="s">
+      <c r="P19" s="16" t="s">
         <v>374</v>
       </c>
-      <c r="P19" s="16" t="s">
+      <c r="Q19" s="16" t="s">
         <v>375</v>
       </c>
-      <c r="Q19" s="16" t="s">
+      <c r="R19" s="16" t="s">
         <v>376</v>
       </c>
-      <c r="R19" s="16" t="s">
+      <c r="S19" s="16" t="s">
         <v>377</v>
       </c>
-      <c r="S19" s="16" t="s">
+      <c r="T19" s="17" t="s">
         <v>378</v>
-      </c>
-      <c r="T19" s="17" t="s">
-        <v>379</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -16913,31 +16915,31 @@
         <v>6</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C20" s="6">
         <v>5</v>
       </c>
       <c r="D20" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E20" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F20" s="16" t="s">
+        <v>380</v>
+      </c>
+      <c r="G20" s="16" t="s">
         <v>381</v>
       </c>
-      <c r="G20" s="16" t="s">
+      <c r="H20" s="16" t="s">
         <v>382</v>
       </c>
-      <c r="H20" s="16" t="s">
+      <c r="I20" s="16" t="s">
         <v>383</v>
       </c>
-      <c r="I20" s="16" t="s">
+      <c r="J20" s="7" t="s">
         <v>384</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="K20" s="7"/>
       <c r="L20" s="7"/>
@@ -16945,19 +16947,19 @@
       <c r="N20" s="7"/>
       <c r="O20" s="7"/>
       <c r="P20" s="16" t="s">
+        <v>385</v>
+      </c>
+      <c r="Q20" s="16" t="s">
         <v>386</v>
       </c>
-      <c r="Q20" s="16" t="s">
+      <c r="R20" s="16" t="s">
         <v>387</v>
       </c>
-      <c r="R20" s="16" t="s">
+      <c r="S20" s="16" t="s">
         <v>388</v>
       </c>
-      <c r="S20" s="16" t="s">
+      <c r="T20" s="17" t="s">
         <v>389</v>
-      </c>
-      <c r="T20" s="17" t="s">
-        <v>390</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -16965,7 +16967,7 @@
         <v>6</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="C21" s="6">
         <v>5</v>
@@ -16974,22 +16976,22 @@
         <v>221</v>
       </c>
       <c r="E21" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F21" s="16" t="s">
+        <v>391</v>
+      </c>
+      <c r="G21" s="16" t="s">
         <v>392</v>
       </c>
-      <c r="G21" s="16" t="s">
+      <c r="H21" s="16" t="s">
         <v>393</v>
       </c>
-      <c r="H21" s="16" t="s">
+      <c r="I21" s="16" t="s">
         <v>394</v>
       </c>
-      <c r="I21" s="16" t="s">
+      <c r="J21" s="7" t="s">
         <v>395</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="K21" s="7"/>
       <c r="L21" s="7"/>
@@ -16997,19 +16999,19 @@
       <c r="N21" s="7"/>
       <c r="O21" s="7"/>
       <c r="P21" s="16" t="s">
+        <v>396</v>
+      </c>
+      <c r="Q21" s="16" t="s">
         <v>397</v>
       </c>
-      <c r="Q21" s="16" t="s">
+      <c r="R21" s="16" t="s">
         <v>398</v>
       </c>
-      <c r="R21" s="16" t="s">
+      <c r="S21" s="16" t="s">
         <v>399</v>
       </c>
-      <c r="S21" s="16" t="s">
-        <v>400</v>
-      </c>
       <c r="T21" s="17" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -17017,13 +17019,13 @@
         <v>6</v>
       </c>
       <c r="B22" s="5" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C22" s="5">
         <v>7</v>
       </c>
       <c r="D22" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>221</v>
@@ -17033,31 +17035,31 @@
       <c r="H22" s="7"/>
       <c r="I22" s="7"/>
       <c r="J22" s="16" t="s">
+        <v>401</v>
+      </c>
+      <c r="K22" s="16" t="s">
         <v>402</v>
       </c>
-      <c r="K22" s="16" t="s">
+      <c r="L22" s="16" t="s">
         <v>403</v>
       </c>
-      <c r="L22" s="16" t="s">
+      <c r="M22" s="16" t="s">
         <v>404</v>
       </c>
-      <c r="M22" s="16" t="s">
+      <c r="N22" s="16" t="s">
         <v>405</v>
       </c>
-      <c r="N22" s="16" t="s">
+      <c r="O22" s="16" t="s">
         <v>406</v>
       </c>
-      <c r="O22" s="16" t="s">
+      <c r="P22" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="Q22" s="7"/>
       <c r="R22" s="7"/>
       <c r="S22" s="7"/>
       <c r="T22" s="17" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -17065,31 +17067,31 @@
         <v>7</v>
       </c>
       <c r="B23" s="6" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="C23" s="6">
         <v>5</v>
       </c>
       <c r="D23" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E23" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F23" s="16" t="s">
+        <v>409</v>
+      </c>
+      <c r="G23" s="16" t="s">
         <v>410</v>
       </c>
-      <c r="G23" s="16" t="s">
+      <c r="H23" s="16" t="s">
         <v>411</v>
       </c>
-      <c r="H23" s="16" t="s">
+      <c r="I23" s="16" t="s">
         <v>412</v>
       </c>
-      <c r="I23" s="16" t="s">
+      <c r="J23" s="7" t="s">
         <v>413</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>414</v>
       </c>
       <c r="K23" s="7"/>
       <c r="L23" s="7"/>
@@ -17097,19 +17099,19 @@
       <c r="N23" s="7"/>
       <c r="O23" s="7"/>
       <c r="P23" s="16" t="s">
+        <v>414</v>
+      </c>
+      <c r="Q23" s="16" t="s">
         <v>415</v>
       </c>
-      <c r="Q23" s="16" t="s">
+      <c r="R23" s="16" t="s">
         <v>416</v>
       </c>
-      <c r="R23" s="16" t="s">
+      <c r="S23" s="16" t="s">
         <v>417</v>
       </c>
-      <c r="S23" s="16" t="s">
+      <c r="T23" s="17" t="s">
         <v>418</v>
-      </c>
-      <c r="T23" s="17" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -17117,7 +17119,7 @@
         <v>7</v>
       </c>
       <c r="B24" s="6" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="C24" s="6">
         <v>5</v>
@@ -17126,22 +17128,22 @@
         <v>221</v>
       </c>
       <c r="E24" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F24" s="16" t="s">
+        <v>420</v>
+      </c>
+      <c r="G24" s="16" t="s">
         <v>421</v>
       </c>
-      <c r="G24" s="16" t="s">
+      <c r="H24" s="16" t="s">
         <v>422</v>
       </c>
-      <c r="H24" s="16" t="s">
+      <c r="I24" s="16" t="s">
         <v>423</v>
       </c>
-      <c r="I24" s="16" t="s">
+      <c r="J24" s="7" t="s">
         <v>424</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>425</v>
       </c>
       <c r="K24" s="7"/>
       <c r="L24" s="7"/>
@@ -17149,19 +17151,19 @@
       <c r="N24" s="7"/>
       <c r="O24" s="7"/>
       <c r="P24" s="16" t="s">
+        <v>425</v>
+      </c>
+      <c r="Q24" s="16" t="s">
         <v>426</v>
       </c>
-      <c r="Q24" s="16" t="s">
+      <c r="R24" s="16" t="s">
         <v>427</v>
       </c>
-      <c r="R24" s="16" t="s">
+      <c r="S24" s="16" t="s">
         <v>428</v>
       </c>
-      <c r="S24" s="16" t="s">
+      <c r="T24" s="17" t="s">
         <v>429</v>
-      </c>
-      <c r="T24" s="17" t="s">
-        <v>430</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -17169,13 +17171,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="5" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C25" s="5">
         <v>7</v>
       </c>
       <c r="D25" s="5" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E25" s="5" t="s">
         <v>221</v>
@@ -17185,31 +17187,31 @@
       <c r="H25" s="7"/>
       <c r="I25" s="7"/>
       <c r="J25" s="16" t="s">
+        <v>431</v>
+      </c>
+      <c r="K25" s="16" t="s">
         <v>432</v>
       </c>
-      <c r="K25" s="16" t="s">
+      <c r="L25" s="16" t="s">
         <v>433</v>
       </c>
-      <c r="L25" s="16" t="s">
+      <c r="M25" s="16" t="s">
         <v>434</v>
       </c>
-      <c r="M25" s="16" t="s">
+      <c r="N25" s="16" t="s">
         <v>435</v>
       </c>
-      <c r="N25" s="16" t="s">
+      <c r="O25" s="16" t="s">
         <v>436</v>
       </c>
-      <c r="O25" s="16" t="s">
+      <c r="P25" s="7" t="s">
         <v>437</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>438</v>
       </c>
       <c r="Q25" s="7"/>
       <c r="R25" s="7"/>
       <c r="S25" s="7"/>
       <c r="T25" s="17" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -17217,19 +17219,19 @@
         <v>8</v>
       </c>
       <c r="B26" s="6" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="C26" s="6">
         <v>4</v>
       </c>
       <c r="D26" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E26" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F26" s="16" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G26" s="7"/>
       <c r="H26" s="7"/>
@@ -17242,16 +17244,16 @@
       <c r="O26" s="7"/>
       <c r="P26" s="7"/>
       <c r="Q26" s="16" t="s">
+        <v>441</v>
+      </c>
+      <c r="R26" s="16" t="s">
         <v>442</v>
       </c>
-      <c r="R26" s="16" t="s">
+      <c r="S26" s="16" t="s">
         <v>443</v>
       </c>
-      <c r="S26" s="16" t="s">
+      <c r="T26" s="17" t="s">
         <v>444</v>
-      </c>
-      <c r="T26" s="17" t="s">
-        <v>445</v>
       </c>
     </row>
     <row r="27" spans="1:20">
@@ -17259,31 +17261,31 @@
         <v>8</v>
       </c>
       <c r="B27" s="6" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="C27" s="6">
         <v>5</v>
       </c>
       <c r="D27" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="E27" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F27" s="16" t="s">
+        <v>446</v>
+      </c>
+      <c r="G27" s="16" t="s">
         <v>447</v>
       </c>
-      <c r="G27" s="16" t="s">
+      <c r="H27" s="16" t="s">
         <v>448</v>
       </c>
-      <c r="H27" s="16" t="s">
+      <c r="I27" s="16" t="s">
         <v>449</v>
       </c>
-      <c r="I27" s="16" t="s">
+      <c r="J27" s="16" t="s">
         <v>450</v>
-      </c>
-      <c r="J27" s="16" t="s">
-        <v>451</v>
       </c>
       <c r="K27" s="7"/>
       <c r="L27" s="7"/>
@@ -17295,7 +17297,7 @@
       <c r="R27" s="7"/>
       <c r="S27" s="7"/>
       <c r="T27" s="17" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:20">
@@ -17303,55 +17305,55 @@
         <v>8</v>
       </c>
       <c r="B28" s="6" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="C28" s="6">
         <v>6</v>
       </c>
       <c r="D28" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="E28" s="6" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="F28" s="16" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G28" s="7"/>
       <c r="H28" s="7"/>
       <c r="I28" s="7"/>
       <c r="J28" s="16" t="s">
+        <v>454</v>
+      </c>
+      <c r="K28" s="16" t="s">
         <v>455</v>
       </c>
-      <c r="K28" s="16" t="s">
+      <c r="L28" s="16" t="s">
         <v>456</v>
       </c>
-      <c r="L28" s="16" t="s">
+      <c r="M28" s="16" t="s">
         <v>457</v>
       </c>
-      <c r="M28" s="16" t="s">
+      <c r="N28" s="16" t="s">
         <v>458</v>
       </c>
-      <c r="N28" s="16" t="s">
+      <c r="O28" s="16" t="s">
         <v>459</v>
       </c>
-      <c r="O28" s="16" t="s">
+      <c r="P28" s="16" t="s">
         <v>460</v>
       </c>
-      <c r="P28" s="16" t="s">
+      <c r="Q28" s="16" t="s">
         <v>461</v>
       </c>
-      <c r="Q28" s="16" t="s">
+      <c r="R28" s="16" t="s">
         <v>462</v>
       </c>
-      <c r="R28" s="16" t="s">
+      <c r="S28" s="16" t="s">
         <v>463</v>
       </c>
-      <c r="S28" s="16" t="s">
+      <c r="T28" s="17" t="s">
         <v>464</v>
-      </c>
-      <c r="T28" s="17" t="s">
-        <v>465</v>
       </c>
     </row>
     <row r="29" spans="1:20">
@@ -17359,55 +17361,55 @@
         <v>8</v>
       </c>
       <c r="B29" s="6" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="C29" s="6">
         <v>6</v>
       </c>
       <c r="D29" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E29" s="6" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F29" s="16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G29" s="7"/>
       <c r="H29" s="7"/>
       <c r="I29" s="7"/>
       <c r="J29" s="16" t="s">
+        <v>467</v>
+      </c>
+      <c r="K29" s="16" t="s">
         <v>468</v>
       </c>
-      <c r="K29" s="16" t="s">
+      <c r="L29" s="16" t="s">
         <v>469</v>
       </c>
-      <c r="L29" s="16" t="s">
+      <c r="M29" s="16" t="s">
         <v>470</v>
       </c>
-      <c r="M29" s="16" t="s">
+      <c r="N29" s="16" t="s">
         <v>471</v>
       </c>
-      <c r="N29" s="16" t="s">
+      <c r="O29" s="16" t="s">
         <v>472</v>
       </c>
-      <c r="O29" s="16" t="s">
+      <c r="P29" s="16" t="s">
         <v>473</v>
       </c>
-      <c r="P29" s="16" t="s">
+      <c r="Q29" s="16" t="s">
         <v>474</v>
       </c>
-      <c r="Q29" s="16" t="s">
+      <c r="R29" s="16" t="s">
         <v>475</v>
       </c>
-      <c r="R29" s="16" t="s">
+      <c r="S29" s="16" t="s">
         <v>476</v>
       </c>
-      <c r="S29" s="16" t="s">
-        <v>477</v>
-      </c>
       <c r="T29" s="17" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="30" spans="1:20">
@@ -17415,61 +17417,61 @@
         <v>8</v>
       </c>
       <c r="B30" s="6" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="C30" s="6">
         <v>8</v>
       </c>
       <c r="D30" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="E30" s="6" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="F30" s="16" t="s">
+        <v>478</v>
+      </c>
+      <c r="G30" s="16" t="s">
         <v>479</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="H30" s="16" t="s">
         <v>480</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="I30" s="16" t="s">
         <v>481</v>
       </c>
-      <c r="I30" s="16" t="s">
+      <c r="J30" s="16" t="s">
         <v>482</v>
       </c>
-      <c r="J30" s="16" t="s">
+      <c r="K30" s="16" t="s">
         <v>483</v>
       </c>
-      <c r="K30" s="16" t="s">
+      <c r="L30" s="16" t="s">
         <v>484</v>
       </c>
-      <c r="L30" s="16" t="s">
+      <c r="M30" s="16" t="s">
         <v>485</v>
       </c>
-      <c r="M30" s="16" t="s">
+      <c r="N30" s="16" t="s">
         <v>486</v>
       </c>
-      <c r="N30" s="16" t="s">
+      <c r="O30" s="16" t="s">
         <v>487</v>
       </c>
-      <c r="O30" s="16" t="s">
+      <c r="P30" s="16" t="s">
         <v>488</v>
       </c>
-      <c r="P30" s="16" t="s">
+      <c r="Q30" s="16" t="s">
         <v>489</v>
       </c>
-      <c r="Q30" s="16" t="s">
+      <c r="R30" s="16" t="s">
         <v>490</v>
       </c>
-      <c r="R30" s="16" t="s">
+      <c r="S30" s="16" t="s">
         <v>491</v>
       </c>
-      <c r="S30" s="16" t="s">
+      <c r="T30" s="17" t="s">
         <v>492</v>
-      </c>
-      <c r="T30" s="17" t="s">
-        <v>493</v>
       </c>
     </row>
     <row r="31" spans="1:20">
